--- a/public/bulk-upload-template.xlsx
+++ b/public/bulk-upload-template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>firstName</t>
   </si>
@@ -37,13 +37,22 @@
     <t>Test</t>
   </si>
   <si>
-    <t>test@upload.com</t>
+    <t>test@2upload.com</t>
   </si>
   <si>
     <t>designer</t>
   </si>
   <si>
+    <t>MG Road Experience Center</t>
+  </si>
+  <si>
     <t>In-house</t>
+  </si>
+  <si>
+    <t>test@3upload.com</t>
+  </si>
+  <si>
+    <t>Whitefield Experience Center</t>
   </si>
 </sst>
 </file>
@@ -175,11 +184,31 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
-        <v>3.0</v>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -189,6 +218,9 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E1000">
+      <formula1>"MG Road Experience Center,Whitefield Experience Center,Mumbai DC Experience Center"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D1000">
       <formula1>"sale,designer"</formula1>
     </dataValidation>
@@ -196,9 +228,6 @@
       <formula1>",In-house,Freelancer"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/bulk-upload-template.xlsx
+++ b/public/bulk-upload-template.xlsx
@@ -221,11 +221,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E1000">
       <formula1>"MG Road Experience Center,Whitefield Experience Center,Mumbai DC Experience Center"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F1000">
+      <formula1>",In-house,Design Partner"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D1000">
       <formula1>"sale,designer"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F1000">
-      <formula1>",In-house,Freelancer"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>

--- a/public/bulk-upload-template.xlsx
+++ b/public/bulk-upload-template.xlsx
@@ -28,7 +28,7 @@
     <t>branch</t>
   </si>
   <si>
-    <t>typeDesigner</t>
+    <t>type</t>
   </si>
   <si>
     <t>Upload</t>
